--- a/resource/test_data.xlsx
+++ b/resource/test_data.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="8895" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="8895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login_data" sheetId="1" r:id="rId1"/>
     <sheet name="医院违规病例反馈" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="人工初审" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
   <si>
     <t>loginid</t>
   </si>
@@ -115,6 +115,57 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>hospital_level</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>endate</t>
+  </si>
+  <si>
+    <t>illegalClass</t>
+  </si>
+  <si>
+    <t>siCode</t>
+  </si>
+  <si>
+    <t>nextstate</t>
+  </si>
+  <si>
+    <t>内蒙古医科大学附属医院</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>2019-05-30</t>
+  </si>
+  <si>
+    <t>医院疑似违规病例反馈</t>
+  </si>
+  <si>
+    <t>三级</t>
+  </si>
+  <si>
+    <t>结案</t>
+  </si>
+  <si>
+    <t>原发性高血压</t>
+  </si>
+  <si>
+    <t>违规</t>
+  </si>
+  <si>
+    <t>201905071530110009-100003</t>
+  </si>
+  <si>
+    <t>疑似违规</t>
   </si>
 </sst>
 </file>
@@ -122,11 +173,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,6 +185,65 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,15 +256,47 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,14 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -185,90 +319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,31 +341,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,151 +491,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,6 +532,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,37 +608,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,39 +632,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -589,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,8 +1190,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:I$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1376,14 +1427,253 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/resource/test_data.xlsx
+++ b/resource/test_data.xlsx
@@ -138,7 +138,7 @@
     <t>nextstate</t>
   </si>
   <si>
-    <t>内蒙古医科大学附属医院</t>
+    <t>铜川市妇幼保健院</t>
   </si>
   <si>
     <t>2019-01-01</t>
@@ -173,11 +173,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -190,6 +190,119 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,91 +317,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,36 +331,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -341,6 +341,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,175 +449,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,17 +535,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,6 +549,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,17 +583,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,24 +624,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -640,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,16 +652,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,115 +670,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/resource/test_data.xlsx
+++ b/resource/test_data.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="8895" activeTab="2"/>
+    <workbookView windowWidth="24000" windowHeight="9765" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login_data" sheetId="1" r:id="rId1"/>
     <sheet name="医院违规病例反馈" sheetId="2" r:id="rId2"/>
     <sheet name="人工初审" sheetId="3" r:id="rId3"/>
+    <sheet name="医院疑似违规病例反馈" sheetId="4" r:id="rId4"/>
+    <sheet name="人工复审" sheetId="5" r:id="rId5"/>
+    <sheet name="专家审核" sheetId="6" r:id="rId6"/>
+    <sheet name="稽查科调查" sheetId="7" r:id="rId7"/>
+    <sheet name="疑点结论" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="84">
   <si>
     <t>loginid</t>
   </si>
@@ -69,10 +74,10 @@
     <t>脑梗死</t>
   </si>
   <si>
-    <t>2019-05-01</t>
-  </si>
-  <si>
-    <t>2019-05-27</t>
+    <t>2015-05-01</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
   </si>
   <si>
     <t>y</t>
@@ -141,10 +146,10 @@
     <t>铜川市妇幼保健院</t>
   </si>
   <si>
-    <t>2019-01-01</t>
-  </si>
-  <si>
-    <t>2019-05-30</t>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
   </si>
   <si>
     <t>医院疑似违规病例反馈</t>
@@ -166,6 +171,108 @@
   </si>
   <si>
     <t>疑似违规</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>diseaset</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>000000012171213</t>
+  </si>
+  <si>
+    <t>我是基于UI自动化自动处理的</t>
+  </si>
+  <si>
+    <t>C:\hsnet.log</t>
+  </si>
+  <si>
+    <t>000000012207889</t>
+  </si>
+  <si>
+    <t>冠状动脉粥样硬化性心脏病</t>
+  </si>
+  <si>
+    <t>000000012171142</t>
+  </si>
+  <si>
+    <t>000000012091293</t>
+  </si>
+  <si>
+    <t>000000012097945</t>
+  </si>
+  <si>
+    <t>000000012143444</t>
+  </si>
+  <si>
+    <t>000000012065775</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>基于UI的自动化处理</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+  </si>
+  <si>
+    <t>高血压3级</t>
+  </si>
+  <si>
+    <t>2018-01-03</t>
+  </si>
+  <si>
+    <t>2018-01-04</t>
+  </si>
+  <si>
+    <t>000000012157594</t>
+  </si>
+  <si>
+    <t>2018-01-05</t>
+  </si>
+  <si>
+    <t>2018-01-06</t>
+  </si>
+  <si>
+    <t>2018-01-07</t>
+  </si>
+  <si>
+    <t>2018-01-08</t>
+  </si>
+  <si>
+    <t>2018-01-09</t>
+  </si>
+  <si>
+    <t>2018-01-10</t>
+  </si>
+  <si>
+    <t>0000000012091293</t>
+  </si>
+  <si>
+    <t>0000000012143444</t>
+  </si>
+  <si>
+    <t>0000000012065775</t>
+  </si>
+  <si>
+    <t>illegalresult</t>
+  </si>
+  <si>
+    <t>铜川市人民医院</t>
+  </si>
+  <si>
+    <t>慢性胃炎</t>
+  </si>
+  <si>
+    <t>不违规</t>
   </si>
 </sst>
 </file>
@@ -173,10 +280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="20">
@@ -196,7 +303,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,11 +332,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,16 +363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,8 +379,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,22 +410,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -310,23 +419,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,7 +448,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,13 +484,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,43 +580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,19 +604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,73 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,11 +642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,16 +667,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +698,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -593,42 +717,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,10 +747,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,140 +759,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +903,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,15 +1279,15 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1190,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:I$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1233,16 +1346,16 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
@@ -1253,13 +1366,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
@@ -1270,13 +1383,13 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
@@ -1290,13 +1403,13 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
@@ -1307,13 +1420,13 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
@@ -1327,13 +1440,13 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
@@ -1344,13 +1457,13 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
@@ -1361,13 +1474,13 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
@@ -1384,13 +1497,13 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
@@ -1401,13 +1514,13 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
@@ -1429,8 +1542,8 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1480,16 +1593,16 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I2" t="s">
@@ -1500,16 +1613,16 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I3" t="s">
@@ -1520,16 +1633,16 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
@@ -1540,13 +1653,13 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I5" t="s">
@@ -1557,13 +1670,13 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G6" t="s">
@@ -1580,16 +1693,16 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I7" t="s">
@@ -1600,13 +1713,13 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I8" t="s">
@@ -1617,13 +1730,13 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I9" t="s">
@@ -1637,13 +1750,13 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G10" t="s">
@@ -1657,13 +1770,13 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I11" t="s">
@@ -1678,4 +1791,1389 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="9.375"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="9.375"/>
+    <col min="7" max="7" width="10.375"/>
+    <col min="8" max="8" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="9.375"/>
+    <col min="7" max="7" width="10.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>